--- a/data/contribute.xlsx
+++ b/data/contribute.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A014228D-A971-4B8C-8AE6-99EE938AD940}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6E4CEA-3E3A-4AA4-A3E7-5332D7FDFBC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,13 +64,13 @@
     <t>https://github.com/benmarwick/wordcountaddin</t>
   </si>
   <si>
-    <t>Developed rtf_document2() function to enable R markdown users to utilize cross-references for figures and tables in an RTF file format through bookdown package.</t>
-  </si>
-  <si>
     <t>Contributed BRLThis() function to enable blind R users to convert a graph into a pdf ready for embossing in Braille.</t>
   </si>
   <si>
     <t>Contributed text_stats() function for R markdown users to Get a word count and some other stats for selected text (excluding code chunks and inline code).</t>
+  </si>
+  <si>
+    <t>Developed html_fragment2, html_notebook2, html_vignette2, ioslides_presentation2, slidy_presentation2 and rtf_document2 functions to enable R markdown users to utilize cross-references for figures and tables in an RTF file format through bookdown package.</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
@@ -512,7 +512,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
@@ -529,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/contribute.xlsx
+++ b/data/contribute.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6E4CEA-3E3A-4AA4-A3E7-5332D7FDFBC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D741A5-A34A-4B3C-9817-93502648C4E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
     <t>Contributed text_stats() function for R markdown users to Get a word count and some other stats for selected text (excluding code chunks and inline code).</t>
   </si>
   <si>
-    <t>Developed html_fragment2, html_notebook2, html_vignette2, ioslides_presentation2, slidy_presentation2 and rtf_document2 functions to enable R markdown users to utilize cross-references for figures and tables in an RTF file format through bookdown package.</t>
+    <t>Developed beamer_presentation2, html_fragment2, html_notebook2, html_vignette2, ioslides_presentation2, slidy_presentation2 and rtf_document2 functions to enable R markdown users to utilize cross-references for figures and tables in an RTF file format through bookdown package.</t>
   </si>
 </sst>
 </file>

--- a/data/contribute.xlsx
+++ b/data/contribute.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D741A5-A34A-4B3C-9817-93502648C4E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE4F266-78E0-43B0-B3CF-1268765CD1BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>what</t>
   </si>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t>Developed beamer_presentation2, html_fragment2, html_notebook2, html_vignette2, ioslides_presentation2, slidy_presentation2 and rtf_document2 functions to enable R markdown users to utilize cross-references for figures and tables in an RTF file format through bookdown package.</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/distill/</t>
+  </si>
+  <si>
+    <t>distill: 'R Markdown' Format for Scientific and Technical Writing</t>
+  </si>
+  <si>
+    <t>JJ Allaire, Rich Iannone, and Yihui Xie</t>
+  </si>
+  <si>
+    <t>Contributed to displaying more metadata for journal article bib_entries.</t>
+  </si>
+  <si>
+    <t>Improved screen reader accessibility for navigation bar.</t>
   </si>
 </sst>
 </file>
@@ -458,9 +473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -500,35 +517,58 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>2019</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2019</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>2019</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/contribute.xlsx
+++ b/data/contribute.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE4F266-78E0-43B0-B3CF-1268765CD1BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C37B16-C400-47B8-BCA6-D59938523670}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,24 +43,15 @@
     <t>bookdown: Authoring Books and Technical Documents with R Markdown</t>
   </si>
   <si>
-    <t>Yihui Xie</t>
-  </si>
-  <si>
     <t>BrailleR: Improved Access for Blind Users</t>
   </si>
   <si>
-    <t>A. Jonathan R. Godfrey</t>
-  </si>
-  <si>
     <t>https://cran.r-project.org/web/packages/BrailleR/</t>
   </si>
   <si>
     <t>wordcountaddin: Word counts and readability statistics in R markdown documents</t>
   </si>
   <si>
-    <t>Ben Marwick</t>
-  </si>
-  <si>
     <t>https://github.com/benmarwick/wordcountaddin</t>
   </si>
   <si>
@@ -70,22 +61,31 @@
     <t>Contributed text_stats() function for R markdown users to Get a word count and some other stats for selected text (excluding code chunks and inline code).</t>
   </si>
   <si>
-    <t>Developed beamer_presentation2, html_fragment2, html_notebook2, html_vignette2, ioslides_presentation2, slidy_presentation2 and rtf_document2 functions to enable R markdown users to utilize cross-references for figures and tables in an RTF file format through bookdown package.</t>
-  </si>
-  <si>
     <t>https://cran.r-project.org/web/packages/distill/</t>
   </si>
   <si>
     <t>distill: 'R Markdown' Format for Scientific and Technical Writing</t>
   </si>
   <si>
-    <t>JJ Allaire, Rich Iannone, and Yihui Xie</t>
-  </si>
-  <si>
     <t>Contributed to displaying more metadata for journal article bib_entries.</t>
   </si>
   <si>
     <t>Improved screen reader accessibility for navigation bar.</t>
+  </si>
+  <si>
+    <t>Developed github_document2, beamer_presentation2, html_fragment2, html_notebook2, html_vignette2, ioslides_presentation2, slidy_presentation2 and rtf_document2 functions to enable R markdown users to utilize cross-references for figures and tables in an RTF file format through bookdown package.</t>
+  </si>
+  <si>
+    <t>Xie, Y.</t>
+  </si>
+  <si>
+    <t>Marwick, B.</t>
+  </si>
+  <si>
+    <t>Allaire, J., Iannone, R., &amp; Xie, Y.</t>
+  </si>
+  <si>
+    <t>Godfrey, A. J. R., Warren, D., Murrell, P., Bilton, T., &amp; Sorge, V.</t>
   </si>
 </sst>
 </file>
@@ -475,9 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -506,70 +504,70 @@
         <v>2019</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2019</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2019</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2019</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/contribute.xlsx
+++ b/data/contribute.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C37B16-C400-47B8-BCA6-D59938523670}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7565D3-2688-4447-B132-8111413BBD8A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>what</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Godfrey, A. J. R., Warren, D., Murrell, P., Bilton, T., &amp; Sorge, V.</t>
+  </si>
+  <si>
+    <t>Added missing Google Scholar meta tags for conference, technical report, and dissertation types.</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,36 +540,42 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>2019</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2019</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2019</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/contribute.xlsx
+++ b/data/contribute.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7565D3-2688-4447-B132-8111413BBD8A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A355A585-772A-4A8E-A073-5B88AB36026D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Improved screen reader accessibility for navigation bar.</t>
   </si>
   <si>
-    <t>Developed github_document2, beamer_presentation2, html_fragment2, html_notebook2, html_vignette2, ioslides_presentation2, slidy_presentation2 and rtf_document2 functions to enable R markdown users to utilize cross-references for figures and tables in an RTF file format through bookdown package.</t>
-  </si>
-  <si>
     <t>Xie, Y.</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Added missing Google Scholar meta tags for conference, technical report, and dissertation types.</t>
+  </si>
+  <si>
+    <t>Developed context_document2, github_document2, beamer_presentation2, html_fragment2, html_notebook2, html_vignette2, ioslides_presentation2, slidy_presentation2 and rtf_document2 functions to enable R markdown users to utilize cross-references for figures and tables through bookdown package.</t>
   </si>
 </sst>
 </file>
@@ -507,13 +507,13 @@
         <v>2019</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
@@ -524,7 +524,7 @@
         <v>2019</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -542,7 +542,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
@@ -553,7 +553,7 @@
         <v>2019</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -570,7 +570,7 @@
         <v>2019</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>

--- a/data/contribute.xlsx
+++ b/data/contribute.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A355A585-772A-4A8E-A073-5B88AB36026D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3B1B4C-F54F-488F-ADB8-71BE7999C9DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>what</t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>Developed context_document2, github_document2, beamer_presentation2, html_fragment2, html_notebook2, html_vignette2, ioslides_presentation2, slidy_presentation2 and rtf_document2 functions to enable R markdown users to utilize cross-references for figures and tables through bookdown package.</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/rmarkdown/</t>
+  </si>
+  <si>
+    <t>Contributed to improving ioslides_presentation accessibility for screen reading software.</t>
+  </si>
+  <si>
+    <t>rmarkdown: Dynamic Documents for R</t>
+  </si>
+  <si>
+    <t>Allaire, J., Xie, Y., et al.</t>
   </si>
 </sst>
 </file>
@@ -476,9 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -499,83 +513,100 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B2">
         <v>2019</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2019</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="D4" s="2"/>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="D5" s="2"/>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>2019</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2019</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2019</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/contribute.xlsx
+++ b/data/contribute.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3B1B4C-F54F-488F-ADB8-71BE7999C9DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530A9F9C-3CBC-4B77-8056-73EC713E4B92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>what</t>
   </si>
@@ -101,6 +101,21 @@
   </si>
   <si>
     <t>Allaire, J., Xie, Y., et al.</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/vitae/</t>
+  </si>
+  <si>
+    <t>vitae: Curriculum Vitae for R Markdown</t>
+  </si>
+  <si>
+    <t>O'Hara-Wild, M., &amp; Hyndman, R.</t>
+  </si>
+  <si>
+    <t>Contributed to displaying multiple bibliographies based on lua filter.</t>
+  </si>
+  <si>
+    <t>Contributed to enabling LaTeX engine customization.</t>
   </si>
 </sst>
 </file>
@@ -488,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -515,98 +530,121 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B2">
-        <v>2019</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2019</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>14</v>
       </c>
       <c r="B4">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2019</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="D5" s="2"/>
-      <c r="E5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="D6" s="2"/>
-      <c r="E6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="D8" s="2"/>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>2019</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>2019</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/contribute.xlsx
+++ b/data/contribute.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530A9F9C-3CBC-4B77-8056-73EC713E4B92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A900C-6EDA-4C35-ADA9-3F81BA180F30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>what</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>Contributed to enabling LaTeX engine customization.</t>
+  </si>
+  <si>
+    <t>shiny: Web Application Framework for R</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/shiny/</t>
+  </si>
+  <si>
+    <t>Chang, W., Cheng, J., Allaire, J., Xie, Y., &amp; McPherson, J.</t>
+  </si>
+  <si>
+    <t>Contributed to improving keyboard and TTS accessibility for input widgets.</t>
   </si>
 </sst>
 </file>
@@ -503,11 +515,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -530,121 +540,138 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>2020</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D3" s="2"/>
-      <c r="E3" s="1" t="s">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B4">
-        <v>2019</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>6</v>
       </c>
       <c r="B5">
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2019</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>2019</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="D7" s="2"/>
-      <c r="E7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="D8" s="2"/>
       <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>2019</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2019</v>
       </c>
       <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/contribute.xlsx
+++ b/data/contribute.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\backup_desktop\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A900C-6EDA-4C35-ADA9-3F81BA180F30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6822D94-1B26-4004-A02E-6FC281F5132D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,6 @@
     <t>https://github.com/benmarwick/wordcountaddin</t>
   </si>
   <si>
-    <t>Contributed BRLThis() function to enable blind R users to convert a graph into a pdf ready for embossing in Braille.</t>
-  </si>
-  <si>
-    <t>Contributed text_stats() function for R markdown users to Get a word count and some other stats for selected text (excluding code chunks and inline code).</t>
-  </si>
-  <si>
     <t>https://cran.r-project.org/web/packages/distill/</t>
   </si>
   <si>
@@ -128,6 +122,12 @@
   </si>
   <si>
     <t>Contributed to improving keyboard and TTS accessibility for input widgets.</t>
+  </si>
+  <si>
+    <t>Contributed to BRLThis() function to enable blind R users to convert a graph into a pdf ready for embossing in Braille.</t>
+  </si>
+  <si>
+    <t>Contributed to text_stats() function for R markdown users to Get a word count and some other stats for selected text (excluding code chunks and inline code).</t>
   </si>
 </sst>
 </file>
@@ -540,59 +540,59 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>2020</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>2020</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
@@ -603,42 +603,42 @@
         <v>2019</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2019</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
@@ -649,13 +649,13 @@
         <v>2019</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
@@ -666,13 +666,13 @@
         <v>2019</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/contribute.xlsx
+++ b/data/contribute.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\backup_desktop\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6822D94-1B26-4004-A02E-6FC281F5132D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52A28F1-E6AB-4F8E-92FA-4C4927B7F08B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>wordcountaddin: Word counts and readability statistics in R markdown documents</t>
   </si>
   <si>
-    <t>https://github.com/benmarwick/wordcountaddin</t>
-  </si>
-  <si>
     <t>https://cran.r-project.org/web/packages/distill/</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Contributed to text_stats() function for R markdown users to Get a word count and some other stats for selected text (excluding code chunks and inline code).</t>
+  </si>
+  <si>
+    <t>https://git.io/JkJca</t>
   </si>
 </sst>
 </file>
@@ -519,9 +519,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,64 +538,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>2020</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>2020</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -603,45 +603,45 @@
         <v>2019</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>2019</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -649,16 +649,16 @@
         <v>2019</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -666,13 +666,13 @@
         <v>2019</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
